--- a/data/Recommendations_source.xlsx
+++ b/data/Recommendations_source.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/axelmaurice/Documents/Python/SFARMASTER/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/axelmaurice/quiz-medical-fr/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ACC871F-7CF9-9C45-8002-44D7300EE479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F665C2F9-E851-0243-B05E-ABFE9BB71BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="2040" windowWidth="43900" windowHeight="22320" xr2:uid="{42A74D39-5C47-2D49-B1A2-0026CAA807C9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="368">
   <si>
     <t>Theme</t>
   </si>
@@ -7291,15 +7291,38 @@
 [10] Romo PGB, Smith CP, Cox A, Averbeck MA, Dowling C, Beckford C, Manohar P, Duran S, Cameron AP. Non-surgical urologic management of
 neurogenic bladder after spinal cord injury. World J Urol. 2018 ; 36(10):1555-1568</t>
   </si>
+  <si>
+    <t>https://sfar.org/wp-content/uploads/2015/10/2_AFAR_Traumatisme-thoracique-_prise-en-charge-des-48-premieres-heures.pdf</t>
+  </si>
+  <si>
+    <t>https://sfar.org/download/rfe-urgence-trauma-abdominal/?wpdmdl=24463&amp;refresh=687f543d0895f1753175101</t>
+  </si>
+  <si>
+    <t>https://sfar.org/wp-content/uploads/2017/09/RFE-ANREA-Prise-en-charge-des-traumatises-craniens-graves-a-la-phase-precoce.pdf</t>
+  </si>
+  <si>
+    <t>https://sfar.org/download/prise-en-charge-des-patients-presentant-un-traumatisme-severe-de-membres/?wpdmdl=30307&amp;refresh=687f54b93fce11753175225</t>
+  </si>
+  <si>
+    <t>https://sfar.org/download/rfe-trauma-vertebro-medulaire/?wpdmdl=24464&amp;refresh=687f50c8b73b01753174216</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -7328,17 +7351,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -7671,10 +7700,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C05178ED-E710-EB4A-9364-4EF190A45357}">
-  <dimension ref="A1:F137"/>
+  <dimension ref="A1:G137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C138" sqref="C138"/>
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="G119" sqref="G119:G137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7684,9 +7713,10 @@
     <col min="3" max="4" width="63" customWidth="1"/>
     <col min="5" max="5" width="74" customWidth="1"/>
     <col min="6" max="6" width="102.1640625" customWidth="1"/>
+    <col min="7" max="7" width="66.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7706,7 +7736,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="170" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="170" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -7725,8 +7755,11 @@
       <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="187" x14ac:dyDescent="0.2">
+      <c r="G2" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="187" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -7745,8 +7778,11 @@
       <c r="F3" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+      <c r="G3" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -7765,8 +7801,11 @@
       <c r="F4" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="170" x14ac:dyDescent="0.2">
+      <c r="G4" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="170" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -7785,8 +7824,11 @@
       <c r="F5" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="187" x14ac:dyDescent="0.2">
+      <c r="G5" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="187" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -7805,8 +7847,11 @@
       <c r="F6" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="306" x14ac:dyDescent="0.2">
+      <c r="G6" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="306" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -7825,8 +7870,11 @@
       <c r="F7" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="306" x14ac:dyDescent="0.2">
+      <c r="G7" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="306" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -7845,8 +7893,11 @@
       <c r="F8" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="G8" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -7865,8 +7916,11 @@
       <c r="F9" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="G9" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -7885,8 +7939,11 @@
       <c r="F10" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="G10" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -7905,8 +7962,11 @@
       <c r="F11" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="G11" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -7925,8 +7985,11 @@
       <c r="F12" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="204" x14ac:dyDescent="0.2">
+      <c r="G12" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="204" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -7945,8 +8008,11 @@
       <c r="F13" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="G13" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -7965,8 +8031,11 @@
       <c r="F14" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="G14" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -7985,8 +8054,11 @@
       <c r="F15" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="G15" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -8005,8 +8077,11 @@
       <c r="F16" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="221" x14ac:dyDescent="0.2">
+      <c r="G16" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="221" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -8025,8 +8100,11 @@
       <c r="F17" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="340" x14ac:dyDescent="0.2">
+      <c r="G17" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="340" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -8045,8 +8123,11 @@
       <c r="F18" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="136" x14ac:dyDescent="0.2">
+      <c r="G18" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="136" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -8065,8 +8146,11 @@
       <c r="F19" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="G19" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -8085,8 +8169,11 @@
       <c r="F20" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="G20" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -8105,8 +8192,11 @@
       <c r="F21" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="G21" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -8125,8 +8215,11 @@
       <c r="F22" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="272" x14ac:dyDescent="0.2">
+      <c r="G22" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="272" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -8145,8 +8238,11 @@
       <c r="F23" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="272" x14ac:dyDescent="0.2">
+      <c r="G23" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="272" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -8165,8 +8261,11 @@
       <c r="F24" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="G24" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -8185,8 +8284,11 @@
       <c r="F25" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="G25" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -8205,8 +8307,11 @@
       <c r="F26" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="G26" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -8225,8 +8330,11 @@
       <c r="F27" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="G27" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -8245,8 +8353,11 @@
       <c r="F28" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="G28" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -8265,8 +8376,11 @@
       <c r="F29" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="G29" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -8285,8 +8399,11 @@
       <c r="F30" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="G30" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -8305,8 +8422,11 @@
       <c r="F31" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="G31" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -8325,8 +8445,11 @@
       <c r="F32" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="323" x14ac:dyDescent="0.2">
+      <c r="G32" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="323" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -8345,8 +8468,11 @@
       <c r="F33" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="323" x14ac:dyDescent="0.2">
+      <c r="G33" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="323" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -8365,8 +8491,11 @@
       <c r="F34" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="306" x14ac:dyDescent="0.2">
+      <c r="G34" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="306" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -8385,8 +8514,11 @@
       <c r="F35" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="G35" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -8405,8 +8537,11 @@
       <c r="F36" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="G36" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -8425,8 +8560,11 @@
       <c r="F37" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="289" x14ac:dyDescent="0.2">
+      <c r="G37" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="289" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -8445,8 +8583,11 @@
       <c r="F38" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="340" x14ac:dyDescent="0.2">
+      <c r="G38" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="340" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -8465,8 +8606,11 @@
       <c r="F39" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="G39" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -8485,8 +8629,11 @@
       <c r="F40" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="G40" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -8505,8 +8652,11 @@
       <c r="F41" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="G41" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -8525,8 +8675,11 @@
       <c r="F42" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="G42" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -8545,8 +8698,11 @@
       <c r="F43" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="G43" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -8565,8 +8721,11 @@
       <c r="F44" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="G44" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -8585,8 +8744,11 @@
       <c r="F45" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="G45" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -8605,8 +8767,11 @@
       <c r="F46" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="G46" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -8625,8 +8790,11 @@
       <c r="F47" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="G47" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -8645,9 +8813,12 @@
       <c r="F48" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="50" spans="1:6" ht="306" x14ac:dyDescent="0.2">
+      <c r="G48" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="50" spans="1:7" ht="306" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -8666,8 +8837,11 @@
       <c r="F50" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="G50" s="4" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -8686,8 +8860,11 @@
       <c r="F51" s="1" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" ht="323" x14ac:dyDescent="0.2">
+      <c r="G51" s="4" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="323" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -8706,8 +8883,11 @@
       <c r="F52" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" ht="323" x14ac:dyDescent="0.2">
+      <c r="G52" s="4" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="323" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>4</v>
       </c>
@@ -8726,8 +8906,11 @@
       <c r="F53" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="G53" s="4" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>4</v>
       </c>
@@ -8746,8 +8929,11 @@
       <c r="F54" s="1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="G54" s="4" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>4</v>
       </c>
@@ -8766,8 +8952,11 @@
       <c r="F55" s="1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="G55" s="4" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>4</v>
       </c>
@@ -8786,8 +8975,11 @@
       <c r="F56" s="1" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="G56" s="4" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>4</v>
       </c>
@@ -8806,8 +8998,11 @@
       <c r="F57" s="1" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="G57" s="4" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>4</v>
       </c>
@@ -8826,8 +9021,11 @@
       <c r="F58" s="1" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="G58" s="4" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>4</v>
       </c>
@@ -8846,8 +9044,11 @@
       <c r="F59" s="1" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="G59" s="4" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>4</v>
       </c>
@@ -8866,8 +9067,11 @@
       <c r="F60" s="1" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="G60" s="4" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>4</v>
       </c>
@@ -8886,8 +9090,11 @@
       <c r="F61" s="1" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="G61" s="4" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>4</v>
       </c>
@@ -8906,8 +9113,11 @@
       <c r="F62" s="1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" ht="306" x14ac:dyDescent="0.2">
+      <c r="G62" s="4" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="306" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>4</v>
       </c>
@@ -8926,8 +9136,11 @@
       <c r="F63" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" ht="204" x14ac:dyDescent="0.2">
+      <c r="G63" s="4" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="204" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>4</v>
       </c>
@@ -8946,9 +9159,12 @@
       <c r="F64" s="1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="66" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="G64" s="4" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="66" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>4</v>
       </c>
@@ -8967,8 +9183,11 @@
       <c r="F66" s="1" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="G66" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>4</v>
       </c>
@@ -8987,8 +9206,11 @@
       <c r="F67" s="1" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" ht="340" x14ac:dyDescent="0.2">
+      <c r="G67" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="340" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>4</v>
       </c>
@@ -9007,8 +9229,11 @@
       <c r="F68" s="1" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="G68" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>4</v>
       </c>
@@ -9027,8 +9252,11 @@
       <c r="F69" s="1" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="G69" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>4</v>
       </c>
@@ -9047,8 +9275,11 @@
       <c r="F70" s="1" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="G70" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>4</v>
       </c>
@@ -9067,8 +9298,11 @@
       <c r="F71" s="1" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="G71" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>4</v>
       </c>
@@ -9087,8 +9321,11 @@
       <c r="F72" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="G72" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>4</v>
       </c>
@@ -9107,8 +9344,11 @@
       <c r="F73" s="1" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" ht="238" x14ac:dyDescent="0.2">
+      <c r="G73" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="238" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>4</v>
       </c>
@@ -9127,8 +9367,11 @@
       <c r="F74" s="1" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="G74" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>4</v>
       </c>
@@ -9147,8 +9390,11 @@
       <c r="F75" s="1" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" ht="404" x14ac:dyDescent="0.2">
+      <c r="G75" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="404" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>4</v>
       </c>
@@ -9167,8 +9413,11 @@
       <c r="F76" s="1" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="G76" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>4</v>
       </c>
@@ -9187,8 +9436,11 @@
       <c r="F77" s="1" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="G77" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>4</v>
       </c>
@@ -9207,8 +9459,11 @@
       <c r="F78" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="G78" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>4</v>
       </c>
@@ -9227,8 +9482,11 @@
       <c r="F79" s="1" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="G79" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>4</v>
       </c>
@@ -9247,8 +9505,11 @@
       <c r="F80" s="1" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="G80" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>4</v>
       </c>
@@ -9267,8 +9528,11 @@
       <c r="F81" s="1" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="G81" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>4</v>
       </c>
@@ -9287,8 +9551,11 @@
       <c r="F82" s="1" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="G82" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>4</v>
       </c>
@@ -9307,8 +9574,11 @@
       <c r="F83" s="1" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="G83" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>4</v>
       </c>
@@ -9327,8 +9597,11 @@
       <c r="F84" s="1" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="G84" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>4</v>
       </c>
@@ -9347,8 +9620,11 @@
       <c r="F85" s="1" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="G85" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>4</v>
       </c>
@@ -9367,8 +9643,11 @@
       <c r="F86" s="1" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" ht="388" x14ac:dyDescent="0.2">
+      <c r="G86" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="388" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>4</v>
       </c>
@@ -9387,8 +9666,11 @@
       <c r="F87" s="1" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" ht="388" x14ac:dyDescent="0.2">
+      <c r="G87" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="388" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>4</v>
       </c>
@@ -9407,8 +9689,11 @@
       <c r="F88" s="1" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" ht="255" x14ac:dyDescent="0.2">
+      <c r="G88" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="255" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>4</v>
       </c>
@@ -9427,8 +9712,11 @@
       <c r="F89" s="1" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" ht="187" x14ac:dyDescent="0.2">
+      <c r="G89" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="187" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>4</v>
       </c>
@@ -9447,8 +9735,11 @@
       <c r="F90" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="G90" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>4</v>
       </c>
@@ -9467,8 +9758,11 @@
       <c r="F91" s="1" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" ht="404" x14ac:dyDescent="0.2">
+      <c r="G91" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="404" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>4</v>
       </c>
@@ -9487,8 +9781,11 @@
       <c r="F92" s="1" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" ht="119" x14ac:dyDescent="0.2">
+      <c r="G92" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>4</v>
       </c>
@@ -9507,8 +9804,11 @@
       <c r="F93" s="1" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="G93" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>4</v>
       </c>
@@ -9527,8 +9827,11 @@
       <c r="F94" s="1" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="G94" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>4</v>
       </c>
@@ -9547,8 +9850,11 @@
       <c r="F95" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="G95" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>4</v>
       </c>
@@ -9567,8 +9873,11 @@
       <c r="F96" s="1" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="G96" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>4</v>
       </c>
@@ -9587,9 +9896,12 @@
       <c r="F97" s="1" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="99" spans="1:6" ht="356" x14ac:dyDescent="0.2">
+      <c r="G97" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="99" spans="1:7" ht="356" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>4</v>
       </c>
@@ -9608,8 +9920,11 @@
       <c r="F99" s="1" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="G99" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>4</v>
       </c>
@@ -9628,8 +9943,11 @@
       <c r="F100" s="1" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="G100" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>4</v>
       </c>
@@ -9648,8 +9966,11 @@
       <c r="F101" s="1" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="G101" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>4</v>
       </c>
@@ -9668,8 +9989,11 @@
       <c r="F102" s="1" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="G102" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>4</v>
       </c>
@@ -9688,8 +10012,11 @@
       <c r="F103" s="1" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="G103" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>4</v>
       </c>
@@ -9708,8 +10035,11 @@
       <c r="F104" s="1" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="G104" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>4</v>
       </c>
@@ -9728,8 +10058,11 @@
       <c r="F105" s="1" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="G105" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>4</v>
       </c>
@@ -9748,8 +10081,11 @@
       <c r="F106" s="1" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="G106" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>4</v>
       </c>
@@ -9768,8 +10104,11 @@
       <c r="F107" s="1" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="G107" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>4</v>
       </c>
@@ -9788,8 +10127,11 @@
       <c r="F108" s="1" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="G108" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>4</v>
       </c>
@@ -9808,8 +10150,11 @@
       <c r="F109" s="1" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="G109" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>4</v>
       </c>
@@ -9828,8 +10173,11 @@
       <c r="F110" s="1" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="G110" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>4</v>
       </c>
@@ -9848,8 +10196,11 @@
       <c r="F111" s="1" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" ht="289" x14ac:dyDescent="0.2">
+      <c r="G111" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="289" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>4</v>
       </c>
@@ -9868,8 +10219,11 @@
       <c r="F112" s="1" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="G112" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>4</v>
       </c>
@@ -9888,8 +10242,11 @@
       <c r="F113" s="1" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" ht="356" x14ac:dyDescent="0.2">
+      <c r="G113" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="356" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>4</v>
       </c>
@@ -9908,8 +10265,11 @@
       <c r="F114" s="1" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="G114" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>4</v>
       </c>
@@ -9928,8 +10288,11 @@
       <c r="F115" s="1" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="G115" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>4</v>
       </c>
@@ -9948,8 +10311,11 @@
       <c r="F116" s="1" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="G116" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>4</v>
       </c>
@@ -9968,9 +10334,12 @@
       <c r="F117" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="119" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="G117" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="119" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>4</v>
       </c>
@@ -9989,8 +10358,11 @@
       <c r="F119" s="1" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" ht="388" x14ac:dyDescent="0.2">
+      <c r="G119" s="4" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="388" x14ac:dyDescent="0.2">
       <c r="C120" s="1" t="s">
         <v>316</v>
       </c>
@@ -10003,8 +10375,11 @@
       <c r="F120" s="1" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" ht="187" x14ac:dyDescent="0.2">
+      <c r="G120" s="4" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="187" x14ac:dyDescent="0.2">
       <c r="C121" s="1" t="s">
         <v>315</v>
       </c>
@@ -10017,8 +10392,11 @@
       <c r="F121" s="1" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" ht="170" x14ac:dyDescent="0.2">
+      <c r="G121" s="4" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="170" x14ac:dyDescent="0.2">
       <c r="C122" s="1" t="s">
         <v>321</v>
       </c>
@@ -10031,8 +10409,11 @@
       <c r="F122" s="1" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="G122" s="4" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C123" s="1" t="s">
         <v>324</v>
       </c>
@@ -10045,8 +10426,11 @@
       <c r="F123" s="1" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="G123" s="4" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C124" s="1" t="s">
         <v>327</v>
       </c>
@@ -10059,8 +10443,11 @@
       <c r="F124" s="1" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="G124" s="4" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C125" s="1" t="s">
         <v>330</v>
       </c>
@@ -10073,8 +10460,11 @@
       <c r="F125" s="1" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="G125" s="4" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C126" s="1" t="s">
         <v>333</v>
       </c>
@@ -10087,8 +10477,11 @@
       <c r="F126" s="1" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="G126" s="4" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C127" s="1" t="s">
         <v>334</v>
       </c>
@@ -10101,8 +10494,11 @@
       <c r="F127" s="1" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="G127" s="4" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C128" s="1" t="s">
         <v>337</v>
       </c>
@@ -10115,8 +10511,11 @@
       <c r="F128" s="1" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="129" spans="3:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="G128" s="4" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="129" spans="3:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C129" s="1" t="s">
         <v>340</v>
       </c>
@@ -10129,8 +10528,11 @@
       <c r="F129" s="1" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="130" spans="3:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="G129" s="4" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="130" spans="3:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C130" s="1" t="s">
         <v>341</v>
       </c>
@@ -10143,8 +10545,11 @@
       <c r="F130" s="1" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="131" spans="3:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="G130" s="4" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="131" spans="3:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C131" s="1" t="s">
         <v>344</v>
       </c>
@@ -10157,8 +10562,11 @@
       <c r="F131" s="1" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="132" spans="3:6" ht="306" x14ac:dyDescent="0.2">
+      <c r="G131" s="4" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="132" spans="3:7" ht="306" x14ac:dyDescent="0.2">
       <c r="C132" s="1" t="s">
         <v>345</v>
       </c>
@@ -10171,8 +10579,11 @@
       <c r="F132" s="1" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="133" spans="3:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="G132" s="4" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="133" spans="3:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C133" s="1" t="s">
         <v>350</v>
       </c>
@@ -10185,8 +10596,11 @@
       <c r="F133" s="1" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="134" spans="3:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="G133" s="4" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="134" spans="3:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C134" s="1" t="s">
         <v>351</v>
       </c>
@@ -10199,8 +10613,11 @@
       <c r="F134" s="1" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="135" spans="3:6" ht="372" x14ac:dyDescent="0.2">
+      <c r="G134" s="4" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="135" spans="3:7" ht="372" x14ac:dyDescent="0.2">
       <c r="C135" s="1" t="s">
         <v>354</v>
       </c>
@@ -10213,8 +10630,11 @@
       <c r="F135" s="1" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="136" spans="3:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="G135" s="4" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="136" spans="3:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C136" s="1" t="s">
         <v>357</v>
       </c>
@@ -10227,8 +10647,11 @@
       <c r="F136" s="1" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="137" spans="3:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="G136" s="4" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="137" spans="3:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C137" s="1" t="s">
         <v>360</v>
       </c>
@@ -10241,8 +10664,22 @@
       <c r="F137" s="1" t="s">
         <v>362</v>
       </c>
+      <c r="G137" s="4" t="s">
+        <v>367</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{8D846C79-3F61-D24E-87D9-221C58CA72C2}"/>
+    <hyperlink ref="G3:G5" r:id="rId2" display="https://sfar.org/wp-content/uploads/2015/10/2_AFAR_Traumatisme-thoracique-_prise-en-charge-des-48-premieres-heures.pdf" xr:uid="{4F66BAFD-AECE-1E41-8D5F-D5D5A41ECFDD}"/>
+    <hyperlink ref="G6:G48" r:id="rId3" display="https://sfar.org/wp-content/uploads/2015/10/2_AFAR_Traumatisme-thoracique-_prise-en-charge-des-48-premieres-heures.pdf" xr:uid="{FACC8C26-9CA9-E344-9B55-281F2C65734C}"/>
+    <hyperlink ref="G50" r:id="rId4" xr:uid="{D74FEE33-D568-2E4A-A778-B390CF214E1D}"/>
+    <hyperlink ref="G51:G64" r:id="rId5" display="https://sfar.org/download/rfe-urgence-trauma-abdominal/?wpdmdl=24463&amp;refresh=687f543d0895f1753175101" xr:uid="{E3F11A7C-B433-5545-AF49-370D7FC15063}"/>
+    <hyperlink ref="G66" r:id="rId6" xr:uid="{300B4580-CBBE-8B42-AF94-15A5587660BD}"/>
+    <hyperlink ref="G67:G97" r:id="rId7" display="https://sfar.org/wp-content/uploads/2017/09/RFE-ANREA-Prise-en-charge-des-traumatises-craniens-graves-a-la-phase-precoce.pdf" xr:uid="{0E9C814A-F781-FC4E-A9A3-36A96D068181}"/>
+    <hyperlink ref="G99" r:id="rId8" xr:uid="{0C9FCE22-91CA-9E45-9718-1857DC554A6F}"/>
+    <hyperlink ref="G100:G117" r:id="rId9" display="https://sfar.org/download/prise-en-charge-des-patients-presentant-un-traumatisme-severe-de-membres/?wpdmdl=30307&amp;refresh=687f54b93fce11753175225" xr:uid="{D4B8132F-DFB5-E64E-AE85-2F0EC72AC0A2}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>